--- a/fontes_complementares_classificado.xlsx
+++ b/fontes_complementares_classificado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,17 +788,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ministério da Saúde</t>
+          <t>Agência Nacional de Vigilância Sanitária - Anvisa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br</t>
+          <t>https://www.gov.br/anvisa/pt-br</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -820,27 +820,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Notícias para os estados</t>
+          <t>Agrotóxicos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados</t>
+          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Notícia Técnica</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Saúde Pública Geral</t>
+          <t>Agrotóxicos</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -852,17 +852,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Disque intoxicação</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados/distrito-federal</t>
+          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos/disque-intoxicacao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,17 +884,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Espírito Santo</t>
+          <t>Monografias de agrotóxicos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados/espirito-santo</t>
+          <t>https://www.gov.br/anvisa/pt-br/setorregulado/regularizacao/agrotoxicos/monografias</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Saúde Pública Geral</t>
+          <t>Agrotóxicos</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -916,17 +916,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Programa de Análise de Resíduos de Agrotóxicos em Alimentos - Para</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados/mato-grosso</t>
+          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos/programa-de-analise-de-residuos-em-alimentos</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Saúde Pública Geral</t>
+          <t>Agrotóxicos</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -948,17 +948,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Reavaliação de Agrotóxicos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados/mato-grosso-do-sul</t>
+          <t>https://www.gov.br/anvisa/pt-br/acessoainformacao/perguntasfrequentes/agrotoxicos/reavaliacao-de-agrotoxicos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Saúde Pública Geral</t>
+          <t>Agrotóxicos</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -980,17 +980,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ministério da Saúde - Saúde A-Z</t>
+          <t>Anvisa - Notícias</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Legislação vigente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.gov.br/saude/pt-br/assuntos/noticias-para-os-estados/minas-gerais</t>
+          <t>https://anvisalegis.datalegis.net/action/ActionDatalegis.php?acao=recuperarTematicasCollapse&amp;cod_modulo=135&amp;cod_menu=1685</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1012,17 +1012,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>Fiocruz - Notas Técnicas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Agência Nacional de Vigilância Sanitária - Anvisa</t>
+          <t>Portal do Governo Brasileiro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br</t>
+          <t>http://brasil.gov.br</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1044,17 +1044,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>Fiocruz - Notas Técnicas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Agrotóxicos</t>
+          <t>Abrascão 2018</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos</t>
+          <t>https://portal.fiocruz.br/pesquisas-notas-tecnicas-e-relatorios/abrascao-2018</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Agrotóxicos</t>
+          <t>Saúde Pública Geral</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1076,17 +1076,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>Fiocruz - Notas Técnicas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Disque intoxicação</t>
+          <t>Mosaico Fiocruz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos/disque-intoxicacao</t>
+          <t>https://portal.fiocruz.br/pesquisas-notas-tecnicas-e-relatorios/curiosidades</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1108,17 +1108,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Monografias de agrotóxicos</t>
+          <t>Centers for Disease Control and Prevention. CDC twenty four seven. Saving Lives, Protecting People</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br/setorregulado/regularizacao/agrotoxicos/monografias</t>
+          <t>https://www.cdc.gov/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Agrotóxicos</t>
+          <t>Saúde Pública Geral</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1140,17 +1140,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Programa de Análise de Resíduos de Agrotóxicos em Alimentos - Para</t>
+          <t>Travelers' Health</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br/assuntos/agrotoxicos/programa-de-analise-de-residuos-em-alimentos</t>
+          <t>https://wwwnc.cdc.gov/travel/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Agrotóxicos</t>
+          <t>Saúde Pública Geral</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1172,27 +1172,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Reavaliação de Agrotóxicos</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.gov.br/anvisa/pt-br/acessoainformacao/perguntasfrequentes/agrotoxicos/reavaliacao-de-agrotoxicos</t>
+          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/publications/index.html</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Portal de Publicações</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Agrotóxicos</t>
+          <t>Saúde Pública Geral</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1204,17 +1204,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Anvisa - Notícias</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Legislação vigente</t>
+          <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://anvisalegis.datalegis.net/action/ActionDatalegis.php?acao=recuperarTematicasCollapse&amp;cod_modulo=135&amp;cod_menu=1685</t>
+          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist//www.cdc.gov/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1236,17 +1236,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fiocruz - Notas Técnicas</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Portal do Governo Brasileiro</t>
+          <t>Diseases &amp; Conditions</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>http://brasil.gov.br</t>
+          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/DiseasesConditions/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1268,17 +1268,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fiocruz - Notas Técnicas</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abrascão 2018</t>
+          <t>Healthy Living</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://portal.fiocruz.br/pesquisas-notas-tecnicas-e-relatorios/abrascao-2018</t>
+          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/HealthyLiving/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1300,17 +1300,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fiocruz - Notas Técnicas</t>
+          <t>CDC - A-Z Topics</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mosaico Fiocruz</t>
+          <t>Emergency Preparedness</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://portal.fiocruz.br/pesquisas-notas-tecnicas-e-relatorios/curiosidades</t>
+          <t>https://emergency.cdc.gov/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1324,230 +1324,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control and Prevention. CDC twenty four seven. Saving Lives, Protecting People</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.cdc.gov/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Travelers' Health</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://wwwnc.cdc.gov/travel/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/publications/index.html</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Portal de Publicações</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control and Prevention</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist//www.cdc.gov/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Diseases &amp; Conditions</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/DiseasesConditions/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Healthy Living</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.cdc.gov/health-topics.html#cdc-atozlist/HealthyLiving/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Fonte complementar automatizada – não presente nos PDFs</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>CDC - A-Z Topics</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Emergency Preparedness</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://emergency.cdc.gov/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Saúde Pública Geral</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>Fonte complementar automatizada – não presente nos PDFs</t>
         </is>
